--- a/status-mail.xlsx
+++ b/status-mail.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>S.NO</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>1)Attended the Arm session by kannan and balakrishna 2)Give session on video module basics 3)Revised the mediacodecs link shared in lark</t>
+  </si>
+  <si>
+    <t>1)prepared on ARM chapter-6 concepts-profiling and cycle counter,instruction schedule,register allocation and conditional execution,2)given presentation on ARM chapter-6,3)Gone through the first four testapps on video module shared in lark.</t>
+  </si>
+  <si>
+    <t>1)Gone through the video module six v4l2 testapps and uploaded to my Github,2)Fix my virtual machine issue to support for capturing video,3)Attended the ARM session on interrupts and exceptions,4)Have an internel discussion with team on testapps.</t>
+  </si>
+  <si>
+    <t>1)Gone through the V4L2 concept,2)Done the v4l2 testapps with run.sh file,3)Gone through the kernel logs for the first 3 testapps,4)I need to complete remaining kernel logs and device tree.</t>
   </si>
 </sst>
 </file>
@@ -392,16 +401,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="184.44140625" customWidth="1"/>
+    <col min="3" max="3" width="205.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -459,6 +468,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44487</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44488</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44490</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/status-mail.xlsx
+++ b/status-mail.xlsx
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,6 +501,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44494</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
